--- a/mpxi.xlsx
+++ b/mpxi.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8158" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="693">
   <si>
     <t>ประทับเวลา</t>
   </si>
@@ -2027,6 +2027,273 @@
   </si>
   <si>
     <t>ดีมากในการดูแลผู้ป่วยทุกขั้นตอน</t>
+  </si>
+  <si>
+    <t>คาดหวังว่าจะได้รับบริการที่ดีเหมือนเดิม</t>
+  </si>
+  <si>
+    <t>ชื่อเสียงแม่ฟ้าหลวง</t>
+  </si>
+  <si>
+    <t>เกษียณ</t>
+  </si>
+  <si>
+    <t>ไม่ชัดเจนเลย</t>
+  </si>
+  <si>
+    <t>ผมเข้ามารักษาการผ่าตัดไส้ติ่งทันเวลาเช้าวันเสาร์แต่ต้องนอนรอการสแกนถึงบ่าย3ด้วยเหตุผลว่าเครื่องของรพ.เสียต้องส่งตัวไปเข้าสแกนที่แม่จัน ผลคือรอจนไส้ติ่งแตก มีค่าใช้จ่ายเพิ่มมากขึ้นจากเดิมที่คุณหมอประเมิน15,000 เป็นมากกว่า30,000 ผมควรจะรับผิดชอบค่าใช้จ่ายที่เพิ่มมากขึ้นนี้หรือไม่ ขอบคุณครับ</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>สะดวก สะอาด ทันสมัย มีความพร้อมทุกด้านเกี่ยวกับบุคลากรทางการแพทย์</t>
+  </si>
+  <si>
+    <t>ค้าขาย,ข้าราชการเกษียณ</t>
+  </si>
+  <si>
+    <t>การบริการของเจ้าหน้าที่โรงพยาบาลมีระเบียบรวดเร็วไม่วุ่นวายเหมือนโรงพยายบาลอื่นที่เคยใช้บริการมา</t>
+  </si>
+  <si>
+    <t>ข้าราชการบำนาญ ชาวนาและชาวสวน</t>
+  </si>
+  <si>
+    <t>เบิกจ่าย</t>
+  </si>
+  <si>
+    <t>การบริการเป็นไปในทางที่ดี ละเอียด เรียบร้อย</t>
+  </si>
+  <si>
+    <t>จ่ายสด</t>
+  </si>
+  <si>
+    <t>บริการโรงพยาบาลที่นี่ดี</t>
+  </si>
+  <si>
+    <t>โรงพยาบาล ใกล้บ้าน หมอพยาบาลน่ารักทุกคน</t>
+  </si>
+  <si>
+    <t>ผ่าทอนซิล</t>
+  </si>
+  <si>
+    <t>บัตรทอง30บาทรักษาทุกโรค</t>
+  </si>
+  <si>
+    <t>เครื่องมือทันสมัย สะอาด</t>
+  </si>
+  <si>
+    <t>อยากให้พัฒนาคุณภาพการบริการของโรงพยาบาลไปเรื่อยๆ</t>
+  </si>
+  <si>
+    <t>เบิกได้ ,ใกล้บ้าน</t>
+  </si>
+  <si>
+    <t>อยู่ใกล้บ้าน</t>
+  </si>
+  <si>
+    <t>มัธยมศึกษาปีที่3</t>
+  </si>
+  <si>
+    <t>อยากให้มีการดูแลอย่างใกล้ชิดกว่านี้</t>
+  </si>
+  <si>
+    <t>บัญชีกลาง</t>
+  </si>
+  <si>
+    <t>มีสุขภาพดีกลับไป</t>
+  </si>
+  <si>
+    <t>บริการดีมากๆ</t>
+  </si>
+  <si>
+    <t>ปวดแผล</t>
+  </si>
+  <si>
+    <t>ใกล้บ้านสะดวก สถานที่กว้าง สะอาด</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เชียงราย </t>
+  </si>
+  <si>
+    <t>สถานที่กว้างสะอาด พยาบาลน่ารักพูดจาดี</t>
+  </si>
+  <si>
+    <t>สดวกไกล้ที่พัก</t>
+  </si>
+  <si>
+    <t>สิงห์บุรีย์</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>บริการดีรวดเร็ว</t>
+  </si>
+  <si>
+    <t>สิทธิการรักษาบัตรทอง</t>
+  </si>
+  <si>
+    <t>พยาบาลกับพี่ผู้ช่วยใจดีน่ารัก  ยิ้มแย้ม ใส่ใจพูดจาดี</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>มีสิทธิอยู่ที่นี่ และโรงขายที่นี่สะดวกสลาย</t>
+  </si>
+  <si>
+    <t>อยู่บ้านเฉยๆ</t>
+  </si>
+  <si>
+    <t>ญาติทำงานที่นี่แนะนำ</t>
+  </si>
+  <si>
+    <t>เปิดตาหลังผ่าตัดต้อกระจกดึงพลาสเตอร์ไม่กดผิวหนังค่อยดึงพลาสเตอร์เกิดรอยถลอกยาว2เซนติเมตร พ่อเป็นเบาหวานแผลหายช้า</t>
+  </si>
+  <si>
+    <t>ข้าราชการ ครู</t>
+  </si>
+  <si>
+    <t>1 คืน</t>
+  </si>
+  <si>
+    <t>หมอโรงพยาบาลประชานุเคราะห์ส่งมารักษาโรงพยาบาลแม่ฟ้าหลวง</t>
+  </si>
+  <si>
+    <t>มีบริการแบบนี้ตลอดไปค่ะ</t>
+  </si>
+  <si>
+    <t>ทางรพ.แม่จันส่งตัวมาใข้บริการที่นี้แล้วประทับใจทุกด้านค่ะ</t>
+  </si>
+  <si>
+    <t>ดีได้มาตรฐาน</t>
+  </si>
+  <si>
+    <t>เกิดอุบัติเหตุ</t>
+  </si>
+  <si>
+    <t>พรบ.มอเตอร์ไซด์</t>
+  </si>
+  <si>
+    <t>ใกล้มหาวิทยาลัยและการรักษาดี</t>
+  </si>
+  <si>
+    <t>อยากให้มีเฉพาะทางที่เก่งขึ้นเป็นที่ยอมรับเท่า รพ. ในเมือง</t>
+  </si>
+  <si>
+    <t>ปรึกษาสุขภาพจิต</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>น่าจะมีเกมหรือของเล่นเพิ่มเติม พาไปเดินเล่นวันละ 5-10 นาที(หากงดให้ใช้มือถือ)</t>
+  </si>
+  <si>
+    <t>มาตามนัดตรวจ</t>
+  </si>
+  <si>
+    <t>UC รพศ.มฟล. (ผู้ประกันตนคนพิการ)</t>
+  </si>
+  <si>
+    <t>เพราะหมอและพยาบาลใส่ใจดี</t>
+  </si>
+  <si>
+    <t>เบิกได้ สะอาดสะดวก มีความปลอดภัย และบริการดี</t>
+  </si>
+  <si>
+    <t>ข้าราชการสังกัด อปท.</t>
+  </si>
+  <si>
+    <t>4วัน 4คืน</t>
+  </si>
+  <si>
+    <t>สะอาดสะดวก การบริการดีเยี่ยมเหมือนทุกๆครั้งที่มารับบริการค่ะ</t>
+  </si>
+  <si>
+    <t>บริการดีเยี่ยม</t>
+  </si>
+  <si>
+    <t>พ่อค้า</t>
+  </si>
+  <si>
+    <t>ไม่มีอาชีพ</t>
+  </si>
+  <si>
+    <t>กรมบัญชีกลาง(หน่วยงานราชการ)</t>
+  </si>
+  <si>
+    <t>ห้องฉุกเฉินควรบริการได้รวดเร็วก็ว่านี้</t>
+  </si>
+  <si>
+    <t>นอนผ่าตัด</t>
+  </si>
+  <si>
+    <t>พะเยา</t>
+  </si>
+  <si>
+    <t>ข้าราชกาค</t>
+  </si>
+  <si>
+    <t>ใกล้บ้านบริการดี</t>
+  </si>
+  <si>
+    <t>สะอาด สะดวกสบาย</t>
+  </si>
+  <si>
+    <t>บัตรทองฉุกเฉิน</t>
+  </si>
+  <si>
+    <t>ห้องพิเศษ VIP อยากให้ที่มีที่พักสำหรับคนเฝ้าไข้เพิ่ม</t>
+  </si>
+  <si>
+    <t>ทำงานที่นี่</t>
+  </si>
+  <si>
+    <t>สวัสดิการบุคลากร</t>
+  </si>
+  <si>
+    <t>รักษาคุณภาพแบบนี้ให้คงที่ต่อไปค่ะ</t>
+  </si>
+  <si>
+    <t>เบิกราชการได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ในการให้เลือดกับคนไข้ คิดว่าใข้เครื่อง infusion pump ในการให้จะเหมาะสมและปลอดภัยกว่า </t>
+  </si>
+  <si>
+    <t>ดีค่ะ</t>
+  </si>
+  <si>
+    <t>พาหลานมาหาหมอ</t>
+  </si>
+  <si>
+    <t>ราชการเกษียณ</t>
+  </si>
+  <si>
+    <t>ผ่าตัดต่อ</t>
+  </si>
+  <si>
+    <t>มีความเชื่อมั่นและมั่นใจในมาตรฐานการรักษาและบริการทางการแพทย์</t>
+  </si>
+  <si>
+    <t>2 วัน 1 คืน</t>
+  </si>
+  <si>
+    <t>รีวิวดี โรงบาลสะอาด ใกล้บ้าน</t>
+  </si>
+  <si>
+    <t>ป่วยติดเตียง</t>
+  </si>
+  <si>
+    <t>ทุกอย่างดีมากค่ะ</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2460,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AF354" displayName="DataSheet1" name="DataSheet1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AF412" displayName="DataSheet1" name="DataSheet1" id="1">
   <tableColumns count="32">
     <tableColumn name="ประทับเวลา" id="1"/>
     <tableColumn name="หอผู้ป่วยที่ท่านเข้ารับบริการ/ ต้องการประเมิน _x000a_(เพื่อสะท้อนกลับหน่วยงานโดยตรง)" id="2"/>
@@ -31059,6 +31326,4640 @@
         <v>272</v>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="11">
+        <v>45957.62484405092</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H355" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I355" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J355" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K355" s="13">
+        <v>45929.0</v>
+      </c>
+      <c r="L355" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M355" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N355" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O355" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P355" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q355" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R355" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S355" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T355" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U355" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V355" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W355" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X355" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y355" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z355" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC355" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="11">
+        <v>45957.62652827546</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H356" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I356" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J356" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K356" s="13">
+        <v>45936.0</v>
+      </c>
+      <c r="L356" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="M356" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N356" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O356" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P356" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q356" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R356" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S356" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T356" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U356" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V356" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W356" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X356" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y356" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z356" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC356" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="11">
+        <v>45957.62872141204</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H357" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I357" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J357" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K357" s="13">
+        <v>45937.0</v>
+      </c>
+      <c r="L357" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M357" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N357" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O357" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P357" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R357" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S357" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T357" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U357" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V357" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W357" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X357" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y357" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z357" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB357" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="AC357" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="11">
+        <v>45957.62931559028</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="G358" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H358" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I358" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="J358" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K358" s="13">
+        <v>45927.0</v>
+      </c>
+      <c r="L358" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M358" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="N358" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O358" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P358" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q358" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R358" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S358" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T358" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="U358" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V358" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W358" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X358" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y358" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z358" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB358" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="AC358" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="11">
+        <v>45957.63025971065</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H359" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I359" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J359" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="M359" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N359" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O359" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P359" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q359" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R359" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S359" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T359" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U359" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V359" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W359" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X359" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y359" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z359" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB359" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC359" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="11">
+        <v>45957.631395439814</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="G360" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H360" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I360" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="J360" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L360" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M360" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N360" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O360" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P360" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q360" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R360" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S360" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T360" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U360" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V360" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W360" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X360" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y360" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z360" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC360" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="11">
+        <v>45958.46403592592</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H361" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J361" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K361" s="13">
+        <v>45949.0</v>
+      </c>
+      <c r="L361" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="M361" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N361" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O361" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P361" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q361" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R361" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S361" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T361" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U361" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V361" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W361" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X361" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y361" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z361" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB361" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC361" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="11">
+        <v>45958.51811246527</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G362" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H362" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I362" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="J362" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="K362" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L362" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="M362" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N362" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O362" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P362" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q362" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R362" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S362" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T362" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U362" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V362" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W362" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X362" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y362" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z362" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB362" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC362" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="11">
+        <v>45958.524342199074</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H363" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I363" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J363" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="K363" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L363" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N363" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P363" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R363" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T363" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U363" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V363" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W363" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X363" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y363" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z363" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC363" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="11">
+        <v>45958.52744417824</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="G364" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H364" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J364" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K364" s="13">
+        <v>45951.0</v>
+      </c>
+      <c r="L364" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M364" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N364" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O364" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P364" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q364" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R364" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S364" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T364" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U364" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V364" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W364" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X364" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y364" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z364" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC364" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="11">
+        <v>45958.53032826389</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G365" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H365" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I365" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J365" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K365" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L365" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N365" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P365" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R365" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T365" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U365" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V365" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W365" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X365" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y365" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z365" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC365" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="11">
+        <v>45958.538164363425</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="G366" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H366" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I366" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J366" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="K366" s="13">
+        <v>45956.0</v>
+      </c>
+      <c r="L366" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="M366" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N366" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O366" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P366" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q366" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R366" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S366" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T366" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U366" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V366" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W366" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X366" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y366" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z366" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC366" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="11">
+        <v>45958.600125150464</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G367" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H367" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I367" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J367" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K367" s="13">
+        <v>45955.0</v>
+      </c>
+      <c r="L367" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M367" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N367" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O367" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P367" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q367" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R367" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S367" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T367" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U367" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V367" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W367" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X367" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y367" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z367" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC367" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="11">
+        <v>45958.60213482639</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H368" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I368" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J368" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K368" s="13">
+        <v>45951.0</v>
+      </c>
+      <c r="L368" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="M368" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N368" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O368" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P368" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q368" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R368" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S368" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T368" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U368" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V368" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W368" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X368" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y368" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z368" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB368" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC368" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="11">
+        <v>45958.750883553235</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G369" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H369" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I369" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="J369" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K369" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L369" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M369" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N369" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O369" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P369" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q369" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R369" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S369" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T369" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U369" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V369" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W369" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X369" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y369" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z369" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA369" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB369" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC369" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="11">
+        <v>45958.77772733796</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H370" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I370" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="J370" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K370" s="13">
+        <v>45956.0</v>
+      </c>
+      <c r="L370" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M370" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N370" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O370" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P370" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q370" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R370" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S370" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T370" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U370" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V370" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W370" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X370" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y370" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z370" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB370" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC370" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="11">
+        <v>45958.87252228009</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H371" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I371" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J371" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="K371" s="13">
+        <v>45954.0</v>
+      </c>
+      <c r="L371" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M371" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N371" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O371" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P371" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q371" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R371" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S371" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T371" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U371" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V371" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W371" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X371" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y371" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z371" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB371" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC371" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="11">
+        <v>45959.40342596065</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H372" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I372" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J372" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="K372" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L372" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M372" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N372" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O372" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P372" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q372" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R372" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S372" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T372" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U372" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V372" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W372" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X372" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y372" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z372" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB372" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC372" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="11">
+        <v>45959.44800388889</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H373" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J373" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="K373" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L373" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M373" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N373" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O373" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P373" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q373" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R373" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S373" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T373" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U373" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V373" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W373" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X373" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y373" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z373" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB373" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC373" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="11">
+        <v>45959.452288113425</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="G374" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H374" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="I374" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J374" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L374" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M374" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N374" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O374" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P374" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q374" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R374" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S374" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T374" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U374" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V374" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W374" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X374" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y374" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z374" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB374" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC374" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="11">
+        <v>45959.5011155324</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E375" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G375" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H375" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I375" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J375" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="K375" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L375" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M375" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N375" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O375" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P375" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q375" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R375" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S375" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T375" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U375" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V375" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W375" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X375" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y375" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z375" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC375" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="11">
+        <v>45959.515880983796</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G376" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H376" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I376" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J376" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K376" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L376" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M376" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N376" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O376" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P376" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q376" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R376" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S376" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T376" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U376" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V376" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W376" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X376" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y376" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z376" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="11">
+        <v>45959.52546113426</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E377" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="G377" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H377" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="I377" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J377" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K377" s="13">
+        <v>45952.0</v>
+      </c>
+      <c r="L377" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="M377" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N377" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O377" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P377" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q377" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R377" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S377" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T377" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U377" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V377" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W377" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X377" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y377" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z377" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA377" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB377" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="AC377" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="11">
+        <v>45959.52835673611</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E378" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H378" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I378" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J378" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="K378" s="13">
+        <v>45956.0</v>
+      </c>
+      <c r="L378" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="M378" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N378" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O378" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P378" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q378" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R378" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S378" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T378" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U378" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V378" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W378" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X378" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y378" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z378" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC378" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="11">
+        <v>45959.56290900463</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E379" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G379" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H379" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J379" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K379" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L379" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M379" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N379" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O379" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P379" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q379" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R379" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S379" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T379" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U379" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V379" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W379" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X379" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y379" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z379" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB379" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC379" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="11">
+        <v>45959.65094532407</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G380" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H380" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I380" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L380" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M380" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N380" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O380" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P380" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q380" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R380" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S380" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T380" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U380" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V380" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W380" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X380" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y380" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z380" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC380" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="11">
+        <v>45959.67627861111</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G381" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H381" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="I381" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J381" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K381" s="13">
+        <v>45956.0</v>
+      </c>
+      <c r="L381" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M381" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N381" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O381" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P381" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q381" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R381" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S381" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T381" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U381" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V381" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W381" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X381" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y381" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z381" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC381" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="11">
+        <v>45959.6768642824</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E382" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G382" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H382" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I382" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="J382" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K382" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L382" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M382" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N382" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O382" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P382" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q382" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R382" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S382" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T382" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U382" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V382" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W382" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X382" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y382" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z382" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC382" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="11">
+        <v>45960.45657689815</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E383" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="G383" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H383" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I383" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J383" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K383" s="13">
+        <v>45959.0</v>
+      </c>
+      <c r="L383" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M383" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N383" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O383" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P383" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q383" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R383" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S383" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T383" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U383" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V383" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W383" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X383" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y383" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z383" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA383" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB383" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC383" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="11">
+        <v>45960.47020738426</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E384" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H384" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I384" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="J384" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K384" s="13">
+        <v>45959.0</v>
+      </c>
+      <c r="L384" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M384" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N384" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O384" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P384" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q384" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R384" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S384" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T384" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U384" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V384" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W384" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X384" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y384" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z384" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC384" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="11">
+        <v>45960.52634635416</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E385" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="G385" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H385" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I385" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J385" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K385" s="13">
+        <v>45960.0</v>
+      </c>
+      <c r="L385" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="M385" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N385" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O385" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P385" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q385" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R385" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S385" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T385" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U385" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="V385" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W385" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X385" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y385" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z385" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA385" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB385" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="AC385" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="11">
+        <v>45960.527086875</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E386" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G386" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H386" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I386" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="J386" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K386" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L386" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="M386" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N386" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O386" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P386" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q386" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R386" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S386" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T386" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U386" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V386" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W386" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X386" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y386" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z386" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA386" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB386" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC386" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="11">
+        <v>45960.59629659722</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E387" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G387" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I387" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J387" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="K387" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L387" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M387" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N387" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O387" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P387" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q387" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R387" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S387" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T387" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U387" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V387" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W387" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X387" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y387" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z387" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC387" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="11">
+        <v>45961.43563248843</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E388" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H388" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I388" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J388" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K388" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L388" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="M388" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N388" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O388" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P388" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q388" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R388" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S388" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T388" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U388" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="V388" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W388" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X388" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y388" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z388" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB388" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AC388" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="11">
+        <v>45961.43650834491</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E389" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H389" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="I389" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J389" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K389" s="13">
+        <v>45956.0</v>
+      </c>
+      <c r="L389" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M389" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N389" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O389" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P389" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q389" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R389" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S389" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T389" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="U389" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V389" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W389" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X389" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y389" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z389" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB389" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC389" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="11">
+        <v>45961.44918038194</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E390" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H390" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I390" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J390" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K390" s="13">
+        <v>45946.0</v>
+      </c>
+      <c r="L390" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="M390" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N390" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O390" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P390" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q390" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R390" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S390" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T390" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U390" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V390" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W390" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X390" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y390" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z390" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC390" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="11">
+        <v>45961.454751909725</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H391" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I391" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J391" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="K391" s="13">
+        <v>45960.0</v>
+      </c>
+      <c r="L391" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M391" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N391" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O391" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P391" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q391" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R391" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S391" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T391" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U391" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V391" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W391" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X391" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y391" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z391" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA391" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB391" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC391" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="11">
+        <v>45961.45483747685</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H392" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J392" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L392" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M392" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N392" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O392" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P392" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q392" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R392" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S392" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T392" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U392" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V392" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W392" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X392" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y392" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z392" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB392" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC392" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="11">
+        <v>45961.45871332176</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="G393" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H393" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I393" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="J393" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K393" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L393" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="M393" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N393" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O393" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P393" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q393" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R393" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S393" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T393" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U393" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V393" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W393" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X393" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y393" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z393" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB393" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC393" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="11">
+        <v>45961.4798284375</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H394" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I394" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="J394" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K394" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L394" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="M394" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N394" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O394" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P394" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q394" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R394" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S394" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T394" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U394" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V394" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W394" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X394" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y394" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z394" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC394" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="11">
+        <v>45961.49664349537</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G395" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H395" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I395" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="J395" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="K395" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L395" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="M395" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N395" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O395" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P395" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q395" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R395" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S395" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T395" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U395" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V395" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W395" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X395" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y395" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z395" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB395" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC395" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="11">
+        <v>45961.504256898144</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H396" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="I396" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="J396" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="K396" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L396" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="M396" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N396" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O396" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P396" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q396" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R396" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S396" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T396" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U396" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V396" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W396" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X396" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y396" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z396" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC396" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="11">
+        <v>45961.50468138889</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H397" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I397" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J397" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L397" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="M397" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N397" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O397" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P397" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q397" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R397" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S397" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T397" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U397" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V397" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W397" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X397" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y397" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z397" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC397" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="11">
+        <v>45961.5075190625</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H398" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I398" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J398" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K398" s="13">
+        <v>45959.0</v>
+      </c>
+      <c r="L398" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M398" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N398" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O398" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P398" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q398" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R398" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S398" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T398" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U398" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V398" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W398" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X398" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y398" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z398" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC398" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="11">
+        <v>45961.50754877315</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G399" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H399" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I399" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J399" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="K399" s="13">
+        <v>45952.0</v>
+      </c>
+      <c r="L399" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="M399" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N399" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O399" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P399" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q399" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R399" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S399" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T399" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U399" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V399" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W399" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X399" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y399" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z399" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC399" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="11">
+        <v>45961.513300266204</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H400" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I400" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="J400" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K400" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L400" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="M400" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N400" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O400" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P400" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q400" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R400" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S400" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T400" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U400" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V400" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W400" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X400" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y400" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z400" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB400" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC400" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="11">
+        <v>45961.52635475695</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G401" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H401" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J401" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="K401" s="13">
+        <v>45958.0</v>
+      </c>
+      <c r="L401" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M401" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N401" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O401" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P401" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q401" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R401" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S401" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T401" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U401" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V401" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W401" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X401" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y401" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z401" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC401" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="11">
+        <v>45961.52704318287</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J402" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K402" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L402" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="M402" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N402" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O402" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P402" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q402" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R402" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S402" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T402" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U402" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V402" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W402" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X402" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y402" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z402" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC402" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="11">
+        <v>45961.52743087963</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="G403" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H403" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J403" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="K403" s="13">
+        <v>45960.0</v>
+      </c>
+      <c r="L403" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="M403" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N403" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O403" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P403" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q403" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R403" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S403" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T403" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U403" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V403" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W403" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X403" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y403" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z403" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB403" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC403" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="11">
+        <v>45961.53349765047</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E404" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H404" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I404" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J404" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K404" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L404" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="M404" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N404" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O404" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P404" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q404" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R404" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S404" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T404" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U404" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V404" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W404" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X404" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y404" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z404" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA404" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB404" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC404" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="11">
+        <v>45961.57771938657</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J405" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="L405" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="M405" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N405" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O405" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P405" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q405" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R405" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S405" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T405" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U405" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V405" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W405" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X405" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y405" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z405" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC405" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="11">
+        <v>45961.59879853009</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I406" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="J406" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K406" s="13">
+        <v>45959.0</v>
+      </c>
+      <c r="L406" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="M406" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N406" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O406" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P406" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q406" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R406" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S406" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T406" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U406" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V406" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W406" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X406" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y406" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z406" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC406" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="11">
+        <v>45961.61546771991</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E407" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="G407" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H407" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I407" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J407" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K407" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L407" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="M407" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N407" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O407" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P407" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q407" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R407" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S407" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T407" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U407" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V407" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W407" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X407" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y407" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z407" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC407" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="11">
+        <v>45961.653586030094</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E408" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H408" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I408" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J408" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K408" s="13">
+        <v>45961.0</v>
+      </c>
+      <c r="L408" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="M408" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N408" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O408" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P408" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q408" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R408" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S408" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T408" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U408" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V408" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W408" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X408" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y408" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z408" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB408" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC408" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="11">
+        <v>45961.66163956019</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E409" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G409" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I409" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="J409" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K409" s="13">
+        <v>45954.0</v>
+      </c>
+      <c r="L409" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M409" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N409" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O409" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P409" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q409" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R409" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S409" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T409" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U409" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V409" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W409" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X409" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y409" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z409" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB409" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC409" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="11">
+        <v>45961.66723422454</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H410" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I410" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J410" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="K410" s="13">
+        <v>45957.0</v>
+      </c>
+      <c r="L410" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="M410" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N410" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O410" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P410" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q410" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R410" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S410" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T410" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U410" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V410" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W410" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X410" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y410" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z410" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC410" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="11">
+        <v>45961.74481700231</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G411" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H411" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="I411" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K411" s="13">
+        <v>45960.0</v>
+      </c>
+      <c r="M411" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N411" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O411" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P411" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q411" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R411" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S411" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T411" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U411" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V411" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W411" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X411" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y411" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z411" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC411" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="11">
+        <v>45961.78551689815</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G412" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H412" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I412" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K412" s="13">
+        <v>45960.0</v>
+      </c>
+      <c r="M412" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N412" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O412" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P412" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q412" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R412" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S412" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T412" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U412" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V412" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W412" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="X412" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y412" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z412" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC412" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
